--- a/2024/shuffle-architecute/Teste10/content/results/metrics_6_3.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_6_3.xlsx
@@ -488,519 +488,519 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_15</t>
+          <t>model_6_3_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.968092226996187</v>
+        <v>0.9429633661903003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7813649283069439</v>
+        <v>0.7837176169616299</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7705297969310623</v>
+        <v>0.8200733394750143</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8180769973612505</v>
+        <v>0.6628138290527856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8554672645019001</v>
+        <v>0.8209184132181552</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1339101046323776</v>
+        <v>0.2393705546855927</v>
       </c>
       <c r="H2" t="n">
-        <v>1.462013721466064</v>
+        <v>1.446281313896179</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2271489799022675</v>
+        <v>0.9581637382507324</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5998094081878662</v>
+        <v>0.5367228388786316</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4134791791439056</v>
+        <v>0.7474433183670044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_16</t>
+          <t>model_6_3_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9679124001499838</v>
+        <v>0.9431254359957136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7813637154508142</v>
+        <v>0.7835350418115473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7676067359070908</v>
+        <v>0.820426753674307</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8169490763698917</v>
+        <v>0.664476314120322</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8543115876531909</v>
+        <v>0.8214608881854941</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1346647888422012</v>
+        <v>0.2386903613805771</v>
       </c>
       <c r="H3" t="n">
-        <v>1.462021827697754</v>
+        <v>1.447502255439758</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2300424873828888</v>
+        <v>0.9562816619873047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6035282015800476</v>
+        <v>0.5340765118598938</v>
       </c>
       <c r="K3" t="n">
-        <v>0.416785329580307</v>
+        <v>0.7451791167259216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_14</t>
+          <t>model_6_3_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9682806583070993</v>
+        <v>0.943302977649958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7813619901123945</v>
+        <v>0.7833293307923541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7737371543126459</v>
+        <v>0.8208155161649744</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8193229298169459</v>
+        <v>0.6663162061577976</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8567401134251087</v>
+        <v>0.8220598081262512</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1331192851066589</v>
+        <v>0.2379452586174011</v>
       </c>
       <c r="H4" t="n">
-        <v>1.46203339099884</v>
+        <v>1.448877811431885</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2239740788936615</v>
+        <v>0.954211413860321</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5957015156745911</v>
+        <v>0.531147837638855</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4098378121852875</v>
+        <v>0.7426793575286865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_17</t>
+          <t>model_6_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.967742311964606</v>
+        <v>0.9434970491291861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.781359649291574</v>
+        <v>0.7830972097569009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7649453619216668</v>
+        <v>0.8212429968298323</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8159291752646863</v>
+        <v>0.6683502368006922</v>
       </c>
       <c r="F5" t="n">
-        <v>0.853263442640386</v>
+        <v>0.822720333029151</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1353786140680313</v>
+        <v>0.2371307909488678</v>
       </c>
       <c r="H5" t="n">
-        <v>1.462049007415771</v>
+        <v>1.450429916381836</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2326769232749939</v>
+        <v>0.9519348740577698</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6068909168243408</v>
+        <v>0.5279101133346558</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4197838604450226</v>
+        <v>0.7399225234985352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_18</t>
+          <t>model_6_3_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9675825857101608</v>
+        <v>0.9437087501936159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7813536973540771</v>
+        <v>0.7828348669211542</v>
       </c>
       <c r="D6" t="n">
-        <v>0.762524959566061</v>
+        <v>0.8217118967108659</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8150078422702871</v>
+        <v>0.6705988910852703</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8523137874161417</v>
+        <v>0.8234481912274935</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1360489577054977</v>
+        <v>0.236242339015007</v>
       </c>
       <c r="H6" t="n">
-        <v>1.462088823318481</v>
+        <v>1.452184319496155</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2350728511810303</v>
+        <v>0.9494379162788391</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6099285483360291</v>
+        <v>0.5243307948112488</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4225006401538849</v>
+        <v>0.736884593963623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_13</t>
+          <t>model_6_3_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9684758404724852</v>
+        <v>0.9439390922682649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7813531835313503</v>
+        <v>0.782537827264403</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7772491584147635</v>
+        <v>0.8222255631690637</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8206975765781336</v>
+        <v>0.6730817854874069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8581398514903282</v>
+        <v>0.8242493924551602</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1323001533746719</v>
+        <v>0.2352756261825562</v>
       </c>
       <c r="H7" t="n">
-        <v>1.462092161178589</v>
+        <v>1.454170703887939</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2204975783824921</v>
+        <v>0.9467024803161621</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5911692380905151</v>
+        <v>0.520378589630127</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4058334529399872</v>
+        <v>0.7335405945777893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_19</t>
+          <t>model_6_3_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9674334652801442</v>
+        <v>0.9441890425319192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7813465204109312</v>
+        <v>0.7822008348958901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7603270018247092</v>
+        <v>0.8227874203784392</v>
       </c>
       <c r="E8" t="n">
-        <v>0.814175745379218</v>
+        <v>0.6758224185295795</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8514540083519908</v>
+        <v>0.8251304837268094</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136674776673317</v>
+        <v>0.2342266291379929</v>
       </c>
       <c r="H8" t="n">
-        <v>1.46213686466217</v>
+        <v>1.456423997879028</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2372485548257828</v>
+        <v>0.9437103867530823</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6126720309257507</v>
+        <v>0.5160161256790161</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4249603152275085</v>
+        <v>0.7298630475997925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_20</t>
+          <t>model_6_3_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9672949678557106</v>
+        <v>0.9444591585635241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.781338686063524</v>
+        <v>0.7818176995712348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7583318364377543</v>
+        <v>0.8234005770148594</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8134254324311367</v>
+        <v>0.6788428197292151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8506764531575695</v>
+        <v>0.8260974973696622</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1372560113668442</v>
+        <v>0.2330929934978485</v>
       </c>
       <c r="H9" t="n">
-        <v>1.462189197540283</v>
+        <v>1.458986043930054</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2392235547304153</v>
+        <v>0.9404451847076416</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6151458621025085</v>
+        <v>0.5112083554267883</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4271847009658813</v>
+        <v>0.7258270382881165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_12</t>
+          <t>model_6_3_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9686752436857557</v>
+        <v>0.9447499443467465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7813362723700245</v>
+        <v>0.7813810437823235</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7810895880202391</v>
+        <v>0.8240677445506834</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8222127017310001</v>
+        <v>0.6821688272951667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8596773496637858</v>
+        <v>0.8271574120544265</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1314633041620255</v>
+        <v>0.231872633099556</v>
       </c>
       <c r="H10" t="n">
-        <v>1.462205410003662</v>
+        <v>1.461905956268311</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2166959941387177</v>
+        <v>0.9368923306465149</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5861737728118896</v>
+        <v>0.5059140920639038</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4014349579811096</v>
+        <v>0.7214032411575317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_21</t>
+          <t>model_6_3_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9671668223355355</v>
+        <v>0.9450613878126596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7813305528023207</v>
+        <v>0.7808821162273096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7565231398362322</v>
+        <v>0.8247920434186587</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8127484620508759</v>
+        <v>0.6858258246049417</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8499734457776362</v>
+        <v>0.8283167812774844</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1377938240766525</v>
+        <v>0.2305655926465988</v>
       </c>
       <c r="H11" t="n">
-        <v>1.462243676185608</v>
+        <v>1.465242266654968</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2410139441490173</v>
+        <v>0.9330352544784546</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6173778772354126</v>
+        <v>0.5000930428504944</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4291958808898926</v>
+        <v>0.7165642976760864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_22</t>
+          <t>model_6_3_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.96704869074053</v>
+        <v>0.9453929351565313</v>
       </c>
       <c r="C12" t="n">
-        <v>0.781322342191228</v>
+        <v>0.780310417499249</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7548841349664388</v>
+        <v>0.8255755293444607</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8121383464354357</v>
+        <v>0.6898394684906866</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8493383095839655</v>
+        <v>0.8295820606625894</v>
       </c>
       <c r="G12" t="n">
-        <v>0.138289600610733</v>
+        <v>0.2291741520166397</v>
       </c>
       <c r="H12" t="n">
-        <v>1.462298631668091</v>
+        <v>1.469065308570862</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2426363825798035</v>
+        <v>0.9288629293441772</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6193894147872925</v>
+        <v>0.493704229593277</v>
       </c>
       <c r="K12" t="n">
-        <v>0.431012898683548</v>
+        <v>0.7112833261489868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_23</t>
+          <t>model_6_3_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.966940117123919</v>
+        <v>0.9457432573343075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7813143079124983</v>
+        <v>0.7796533525108945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7533997984998889</v>
+        <v>0.826420174675498</v>
       </c>
       <c r="E13" t="n">
-        <v>0.811588595522045</v>
+        <v>0.6942361412182375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8487647100974494</v>
+        <v>0.8309592271612125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1387452483177185</v>
+        <v>0.2277039289474487</v>
       </c>
       <c r="H13" t="n">
-        <v>1.462352156639099</v>
+        <v>1.473459005355835</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2441056966781616</v>
+        <v>0.9243649244308472</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6212019920349121</v>
+        <v>0.4867057204246521</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4326538443565369</v>
+        <v>0.705535352230072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_11</t>
+          <t>model_6_3_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9688749969283023</v>
+        <v>0.9461100302084148</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7813081902042336</v>
+        <v>0.7788956693602881</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7852795630988769</v>
+        <v>0.8273265318924808</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8238793168579361</v>
+        <v>0.6990405111898272</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8613626544658075</v>
+        <v>0.8324535501136834</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1306249797344208</v>
+        <v>0.2261646687984467</v>
       </c>
       <c r="H14" t="n">
-        <v>1.462393164634705</v>
+        <v>1.478525638580322</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2125484198331833</v>
+        <v>0.9195383191108704</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5806788802146912</v>
+        <v>0.4790582954883575</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3966136574745178</v>
+        <v>0.6992983818054199</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_24</t>
+          <t>model_6_3_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9668405502751982</v>
+        <v>0.9464895251733033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7813065556179909</v>
+        <v>0.7780189563490331</v>
       </c>
       <c r="D15" t="n">
-        <v>0.752056554119571</v>
+        <v>0.8282946570275183</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8110931666826223</v>
+        <v>0.7042730722180124</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8482468219933292</v>
+        <v>0.8340689033701278</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1391631215810776</v>
+        <v>0.2245720028877258</v>
       </c>
       <c r="H15" t="n">
-        <v>1.462404131889343</v>
+        <v>1.48438835144043</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2454353421926498</v>
+        <v>0.9143826961517334</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6228354573249817</v>
+        <v>0.470729261636734</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4341354370117188</v>
+        <v>0.6925563216209412</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9690699335790567</v>
+        <v>0.9468763167639048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7812649675747508</v>
+        <v>0.7770007674230258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7898397256739089</v>
+        <v>0.8293228213643435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8257097956183984</v>
+        <v>0.7099506886796929</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8632064213509967</v>
+        <v>0.8358075036643127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1298068761825562</v>
+        <v>0.2229487299919128</v>
       </c>
       <c r="H16" t="n">
-        <v>1.462682247161865</v>
+        <v>1.491196870803833</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2080343812704086</v>
+        <v>0.9089074730873108</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5746436715126038</v>
+        <v>0.4616917967796326</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3913390040397644</v>
+        <v>0.685299813747406</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9692530126217798</v>
+        <v>0.9472627343702215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7812013465020342</v>
+        <v>0.7758137881853566</v>
       </c>
       <c r="D17" t="n">
-        <v>0.79478704473034</v>
+        <v>0.8304086613105159</v>
       </c>
       <c r="E17" t="n">
-        <v>0.827716459414636</v>
+        <v>0.7160804905809575</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8652186669708102</v>
+        <v>0.8376691428065706</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1290385276079178</v>
+        <v>0.2213270217180252</v>
       </c>
       <c r="H17" t="n">
-        <v>1.463107585906982</v>
+        <v>1.499134182929993</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2031370997428894</v>
+        <v>0.903124988079071</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5680276155471802</v>
+        <v>0.4519345462322235</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3855823874473572</v>
+        <v>0.6775298118591309</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.969414917524139</v>
+        <v>0.9476384920966058</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7811105398020142</v>
+        <v>0.7744247080020759</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8001360044955015</v>
+        <v>0.8315489090331661</v>
       </c>
       <c r="E18" t="n">
-        <v>0.829911684589584</v>
+        <v>0.7226588388322281</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8674090800702354</v>
+        <v>0.8396509766294392</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1283590346574783</v>
+        <v>0.2197500467300415</v>
       </c>
       <c r="H18" t="n">
-        <v>1.463714838027954</v>
+        <v>1.50842297077179</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1978422552347183</v>
+        <v>0.8970528244972229</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5607898235321045</v>
+        <v>0.4414633512496948</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3793160617351532</v>
+        <v>0.6692580580711365</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9695432714508394</v>
+        <v>0.9479899088093825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7809835208731687</v>
+        <v>0.772793216548187</v>
       </c>
       <c r="D19" t="n">
-        <v>0.805892308339714</v>
+        <v>0.8327401388532691</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8323077777157433</v>
+        <v>0.7296627747992722</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8697857061181307</v>
+        <v>0.8417465190165909</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1278203725814819</v>
+        <v>0.2182752192020416</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464564323425293</v>
+        <v>1.519332885742188</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1921441853046417</v>
+        <v>0.8907091617584229</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5528898239135742</v>
+        <v>0.430314689874649</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3725169599056244</v>
+        <v>0.6605117917060852</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9696220974750106</v>
+        <v>0.94829932334794</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7808086795340803</v>
+        <v>0.7708703648351657</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8120514731617605</v>
+        <v>0.833980384630211</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8349172867374215</v>
+        <v>0.737044836878733</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8723550098528008</v>
+        <v>0.8439453092101472</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1274895519018173</v>
+        <v>0.2169766575098038</v>
       </c>
       <c r="H20" t="n">
-        <v>1.465733408927917</v>
+        <v>1.532191038131714</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1860473304986954</v>
+        <v>0.8841045498847961</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5442861318588257</v>
+        <v>0.4185641407966614</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3651667237281799</v>
+        <v>0.6513345837593079</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9696306003597434</v>
+        <v>0.9485451035504922</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7805708854425618</v>
+        <v>0.7685978137226083</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8185943274708757</v>
+        <v>0.8352722157073705</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8377522123812163</v>
+        <v>0.7447285184743517</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8751206082559563</v>
+        <v>0.8462346483145937</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1274538636207581</v>
+        <v>0.2159451991319656</v>
       </c>
       <c r="H21" t="n">
-        <v>1.467323541641235</v>
+        <v>1.547387480735779</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1795706450939178</v>
+        <v>0.8772251605987549</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5349392294883728</v>
+        <v>0.4063334763050079</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3572548925876617</v>
+        <v>0.6417794227600098</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9695420485790988</v>
+        <v>0.948700772992444</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7802506018131757</v>
+        <v>0.7659065679881252</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8254787160030246</v>
+        <v>0.8366266898958133</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8408241789805919</v>
+        <v>0.7525971531153862</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8780818696457748</v>
+        <v>0.8485991991238013</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1278254985809326</v>
+        <v>0.2152918577194214</v>
       </c>
       <c r="H22" t="n">
-        <v>1.469465255737305</v>
+        <v>1.565383791923523</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1727558970451355</v>
+        <v>0.8700121641159058</v>
       </c>
       <c r="J22" t="n">
-        <v>0.524810791015625</v>
+        <v>0.3938084244728088</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3487833440303802</v>
+        <v>0.6319103240966797</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.969322155432922</v>
+        <v>0.9487351279802134</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7798226029230664</v>
+        <v>0.7627171337829206</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8326324744707908</v>
+        <v>0.8380655636868078</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8441443478983957</v>
+        <v>0.7604978890199603</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8812327543252864</v>
+        <v>0.8510237004007376</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1287483423948288</v>
+        <v>0.2151476889848709</v>
       </c>
       <c r="H23" t="n">
-        <v>1.47232723236084</v>
+        <v>1.586711645126343</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1656745076179504</v>
+        <v>0.8623496890068054</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5138640403747559</v>
+        <v>0.3812322616577148</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3397692739963531</v>
+        <v>0.6217910647392273</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9689271654811956</v>
+        <v>0.9486117366406089</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7792544295579575</v>
+        <v>0.7589401737702797</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8399403438942724</v>
+        <v>0.8396247015193496</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8477229501691088</v>
+        <v>0.7682393556983638</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8845592290431171</v>
+        <v>0.8534945491447522</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1304060369729996</v>
+        <v>0.2156655341386795</v>
       </c>
       <c r="H24" t="n">
-        <v>1.476126670837402</v>
+        <v>1.611968159675598</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1584405601024628</v>
+        <v>0.8540468215942383</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5020651817321777</v>
+        <v>0.368909627199173</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3302529156208038</v>
+        <v>0.611478328704834</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9683010325111474</v>
+        <v>0.948287154810431</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7785043474902587</v>
+        <v>0.7544785898299093</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8472286607869062</v>
+        <v>0.8413474180228244</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8515671384539497</v>
+        <v>0.7756036937082477</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8880353748094689</v>
+        <v>0.8559978750673602</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1330337971448898</v>
+        <v>0.2170277535915375</v>
       </c>
       <c r="H25" t="n">
-        <v>1.481142520904541</v>
+        <v>1.641802787780762</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1512259840965271</v>
+        <v>0.844872772693634</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4893907010555267</v>
+        <v>0.3571873009204865</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3203083276748657</v>
+        <v>0.6010300517082214</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9673723985739713</v>
+        <v>0.9477065994124479</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7775188897972655</v>
+        <v>0.749229704740489</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8542449766856745</v>
+        <v>0.843269597758361</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8556808589153393</v>
+        <v>0.7823584188578655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8916197722653196</v>
+        <v>0.8585122119565525</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1369310617446899</v>
+        <v>0.2194642275571823</v>
       </c>
       <c r="H26" t="n">
-        <v>1.487732172012329</v>
+        <v>1.676902055740356</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1442806273698807</v>
+        <v>0.8346366286277771</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4758275747299194</v>
+        <v>0.3464353382587433</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3100541234016418</v>
+        <v>0.5905358791351318</v>
       </c>
     </row>
   </sheetData>
